--- a/0321_Jim交代.xlsx
+++ b/0321_Jim交代.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchun/Revenue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F6AA7-4E10-374F-8D91-420669488F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ED6D05-274C-8D47-BB45-E3954683895C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="500" windowWidth="16940" windowHeight="20500" xr2:uid="{F1169463-4625-2E42-A051-ABBA71DD30D8}"/>
+    <workbookView xWindow="10920" yWindow="500" windowWidth="21440" windowHeight="20500" xr2:uid="{F1169463-4625-2E42-A051-ABBA71DD30D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ｃｂ公司清單" sheetId="1" r:id="rId1"/>
     <sheet name="法人評等統計表" sheetId="2" r:id="rId2"/>
+    <sheet name="券商評等標準" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">法人評等統計表!$A$1:$D$177</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="165">
   <si>
     <t>CB標的</t>
   </si>
@@ -510,19 +511,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中立Neutral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>維持</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究員/經理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預估值：營收 YoY(%)/毛利率/營業利益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立 Neutral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">富邦的股票評等標準 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">評等 定義 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">產業評等 定義 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">優於大盤 預估該產業在未來6個月內會比大盤指數表現突出 持平 預估該產業在未來6個月內與大盤指數表現相較持平 劣於大盤 預估該產業在未來6個月內會比大盤指數表現較差 </t>
+  </si>
+  <si>
+    <t>買進</t>
+  </si>
+  <si>
+    <t>預估未來6個月內的絕對報酬超過</t>
+  </si>
+  <si>
+    <t>中立</t>
+  </si>
+  <si>
+    <t>預估未來6個月內有絕對報酬介於15%與負15%之間</t>
+  </si>
+  <si>
+    <t>賣出</t>
+  </si>
+  <si>
+    <t>預估未來6個月內的絕對報酬高於負15%</t>
+  </si>
+  <si>
+    <t>未評等</t>
+  </si>
+  <si>
+    <t>由於富邦目前與該公司有特定交易或沒有足夠的基本資料判斷該公司評等</t>
+  </si>
+  <si>
+    <t>評估中</t>
+  </si>
+  <si>
+    <t>目前正在研議個股的投資評等，將於3到6個月內提供投資評等</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -537,6 +588,18 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="MicrosoftJhengHeiRegular"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="MicrosoftJhengHeiBold"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -573,7 +636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,6 +655,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -607,6 +679,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1" descr="page3image67004784">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A470B368-4689-1DDB-70BD-98B3ADED31EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2476500"/>
+          <a:ext cx="6299200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2" descr="page3image67009152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3380616-5850-4224-C333-A5CBBA652BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="6299200" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3" descr="page3image67009360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0D480A-B9ED-1057-E1F4-C94131F97C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6311900" y="2667000"/>
+          <a:ext cx="1028700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4AC6CD-4E99-A94F-B3A7-7DEEEE44670C}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2250,47 +2510,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6251C55-55EE-4642-B13B-93465DBD9349}">
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A9" zoomScale="92" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:K164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>20230117</v>
       </c>
@@ -2304,17 +2573,17 @@
       <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>138</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>70</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>61.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>20230307</v>
       </c>
@@ -2328,17 +2597,17 @@
       <c r="D3" t="s">
         <v>122</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>135</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>70.2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>20230320</v>
       </c>
@@ -2352,17 +2621,17 @@
       <c r="D4" t="s">
         <v>130</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>136</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>80</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>67.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>20220729</v>
       </c>
@@ -2376,17 +2645,17 @@
       <c r="D5" t="s">
         <v>118</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>136</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>22</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>20221101</v>
       </c>
@@ -2400,17 +2669,17 @@
       <c r="D6" t="s">
         <v>118</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>138</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>137</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>20230220</v>
       </c>
@@ -2424,17 +2693,17 @@
       <c r="D7" t="s">
         <v>118</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>138</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>139</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>17.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>20230310</v>
       </c>
@@ -2448,17 +2717,17 @@
       <c r="D8" t="s">
         <v>122</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>135</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>81.5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>78.3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>20221109</v>
       </c>
@@ -2472,23 +2741,23 @@
       <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>141</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>140</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>28.5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>19</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>17.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>20230215</v>
       </c>
@@ -2502,23 +2771,23 @@
       <c r="D10" t="s">
         <v>111</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>144</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>143</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>15.3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>18.7</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>19.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>20230215</v>
       </c>
@@ -2532,14 +2801,14 @@
       <c r="D11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>142</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>19.55</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>20230315</v>
       </c>
@@ -2553,14 +2822,14 @@
       <c r="D12" t="s">
         <v>118</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>142</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>19.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>20220629</v>
       </c>
@@ -2574,17 +2843,17 @@
       <c r="D13" t="s">
         <v>110</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>145</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>146</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>22.05</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>20220830</v>
       </c>
@@ -2598,17 +2867,17 @@
       <c r="D14" t="s">
         <v>112</v>
       </c>
-      <c r="G14" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14">
+      <c r="H14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14">
         <v>9.9</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>20220831</v>
       </c>
@@ -2622,26 +2891,26 @@
       <c r="D15" t="s">
         <v>129</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>144</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>138</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8.89</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>8.83</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>20221130</v>
       </c>
@@ -2655,23 +2924,23 @@
       <c r="D16" t="s">
         <v>128</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>142</v>
       </c>
-      <c r="F16" t="s">
-        <v>148</v>
-      </c>
       <c r="G16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" t="s">
         <v>142</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>8.5</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>8.85</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>20221130</v>
       </c>
@@ -2685,26 +2954,26 @@
       <c r="D17" t="s">
         <v>115</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>142</v>
       </c>
-      <c r="F17" t="s">
-        <v>148</v>
-      </c>
       <c r="G17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" t="s">
         <v>142</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
       </c>
       <c r="I17">
         <v>10</v>
       </c>
       <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
         <v>8.85</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>20230228</v>
       </c>
@@ -2719,7 +2988,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>20230314</v>
       </c>
@@ -2734,7 +3003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>20230315</v>
       </c>
@@ -2749,7 +3018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20230315</v>
       </c>
@@ -2764,7 +3033,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>20220804</v>
       </c>
@@ -2779,7 +3048,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>20220905</v>
       </c>
@@ -2794,7 +3063,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>20221130</v>
       </c>
@@ -2809,7 +3078,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>20220707</v>
       </c>
@@ -2824,7 +3093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>20220713</v>
       </c>
@@ -2839,7 +3108,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>20230220</v>
       </c>
@@ -2854,7 +3123,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>20221230</v>
       </c>
@@ -2869,7 +3138,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>20220923</v>
       </c>
@@ -2884,7 +3153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>20220923</v>
       </c>
@@ -2899,7 +3168,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>20220926</v>
       </c>
@@ -2914,7 +3183,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>20220808</v>
       </c>
@@ -3649,7 +3918,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>20221111</v>
       </c>
@@ -3664,7 +3933,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>20221125</v>
       </c>
@@ -3679,7 +3948,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>20230131</v>
       </c>
@@ -3694,7 +3963,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>20230201</v>
       </c>
@@ -3709,7 +3978,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>20230223</v>
       </c>
@@ -3724,7 +3993,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>20230223</v>
       </c>
@@ -3739,7 +4008,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>20230224</v>
       </c>
@@ -3754,7 +4023,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>20230224</v>
       </c>
@@ -3769,7 +4038,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>20230224</v>
       </c>
@@ -3784,7 +4053,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>20230224</v>
       </c>
@@ -3799,7 +4068,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>20230224</v>
       </c>
@@ -3814,7 +4083,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>20230224</v>
       </c>
@@ -3829,7 +4098,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>20230224</v>
       </c>
@@ -3844,7 +4113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>20230301</v>
       </c>
@@ -3858,8 +4127,9 @@
       <c r="D94" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>20230301</v>
       </c>
@@ -3874,7 +4144,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>20220701</v>
       </c>
@@ -5083,4 +5353,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22FC49D-38F4-134C-8D0A-63ABC5F5A7A2}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="227" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>